--- a/Data/technology_parameters.xlsx
+++ b/Data/technology_parameters.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/mans3904_ox_ac_uk/Documents/DPhil/GEOH2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{08E02CC4-9E0E-1942-8899-73E4CBE34A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71B1FDAD-ADA3-4217-8865-4F14FBA55733}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{08E02CC4-9E0E-1942-8899-73E4CBE34A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E401DF41-BAB8-4273-888B-627753C6F102}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C2021D4B-F101-9446-A40F-20FC94B0106D}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="16875" windowHeight="10432" firstSheet="2" activeTab="2" xr2:uid="{C2021D4B-F101-9446-A40F-20FC94B0106D}"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity" sheetId="1" r:id="rId1"/>
-    <sheet name="Global" sheetId="5" r:id="rId2"/>
-    <sheet name="Electrolysis" sheetId="2" r:id="rId3"/>
+    <sheet name="Electrolysis" sheetId="2" r:id="rId2"/>
+    <sheet name="Water" sheetId="6" r:id="rId3"/>
     <sheet name="Wind turbine" sheetId="3" r:id="rId4"/>
     <sheet name="Infra" sheetId="4" r:id="rId5"/>
+    <sheet name="Global" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>CAPEX</t>
   </si>
@@ -124,6 +125,15 @@
   </si>
   <si>
     <t>Water specific cost (euros/m3)</t>
+  </si>
+  <si>
+    <t>Ocean water treatment electricity demand (kWh/m3)</t>
+  </si>
+  <si>
+    <t>Freshwater treatment electricity demand (kWh/m3)</t>
+  </si>
+  <si>
+    <t>Water transport cost (euros/100 km/m3)</t>
   </si>
 </sst>
 </file>
@@ -177,6 +187,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,9 +496,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -498,7 +512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -512,7 +526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -532,61 +546,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AA0EAD-92E5-46DC-A6CE-8D3F449C6741}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>0.08</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD59745-A058-9B4E-8E9D-CAA61114A5F0}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -594,14 +553,14 @@
       <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -609,7 +568,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -617,7 +576,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -625,7 +584,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -633,7 +592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -641,7 +600,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -649,7 +608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -657,7 +616,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -667,6 +626,61 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F260B15A-B8F5-44FB-9EF4-FDC040BBCD83}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="44.8125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>1.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -678,14 +692,14 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -693,7 +707,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -701,7 +715,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -709,7 +723,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -717,7 +731,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -725,7 +739,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -733,7 +747,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -741,7 +755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -762,9 +776,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -778,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -792,7 +806,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -808,7 +822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -828,4 +842,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AA0EAD-92E5-46DC-A6CE-8D3F449C6741}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>